--- a/output/dataset-soal.xlsx
+++ b/output/dataset-soal.xlsx
@@ -2728,7 +2728,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2738,13 +2738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2802,7 +2796,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3120,12 +3114,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="31.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
